--- a/data/Quarterly/datatolatex.xlsx
+++ b/data/Quarterly/datatolatex.xlsx
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/data/Quarterly/datatolatex.xlsx
+++ b/data/Quarterly/datatolatex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="0" windowWidth="24880" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,6 +432,14 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,21 +452,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -891,44 +891,44 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="3:11" ht="30">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -936,271 +936,271 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="30">
-      <c r="C7" s="11"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="11"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="11"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="11"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="11"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="11"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="48" customHeight="1">
-      <c r="C13" s="11"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="11"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="30">
-      <c r="C15" s="10"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1208,410 +1208,410 @@
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="11"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="11"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="10"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="30">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="30">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="30">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="F24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="30">
-      <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="30">
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="30">
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="F30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="2" t="s">
         <v>52</v>
       </c>
     </row>

--- a/data/Quarterly/datatolatex.xlsx
+++ b/data/Quarterly/datatolatex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-2760" yWindow="2400" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,8 +345,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,7 +466,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -504,6 +508,8 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -545,6 +551,8 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
